--- a/models/input_template.xlsx
+++ b/models/input_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siwapolt\Programming\Python\SupplyOptimization\supply-optimization\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071496E-72DB-440B-B39C-962508C69C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" tabRatio="855"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supply" sheetId="8" r:id="rId1"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="382">
   <si>
     <t>plant</t>
   </si>
@@ -1170,12 +1176,24 @@
   </si>
   <si>
     <t>demand volume for each product / location</t>
+  </si>
+  <si>
+    <t>wh_min_vol</t>
+  </si>
+  <si>
+    <t>wh_max_vol</t>
+  </si>
+  <si>
+    <t>warehouse minimum volume</t>
+  </si>
+  <si>
+    <t>warehouse maximum volume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="187" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1441,7 +1459,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1515,7 +1533,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1792,14 +1816,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -1856,38 +1880,45 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D30" sqref="D30"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="13" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="12"/>
+    <col min="3" max="4" width="10.75" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>345</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2" s="27"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="27"/>
     </row>
@@ -1898,7 +1929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1935,7 +1966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5024,11 +5055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5305,35 +5336,55 @@
       <c r="B22" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B25" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C25" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D25" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="22"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="26"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5342,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8175,7 +8226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8244,7 +8295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8300,7 +8351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8381,7 +8432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8542,7 +8593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8579,7 +8630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8628,7 +8679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
